--- a/config_5.25/fish_am_yutu_random_4.xlsx
+++ b/config_5.25/fish_am_yutu_random_4.xlsx
@@ -245,12 +245,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,45 +272,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,18 +303,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,17 +318,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,16 +337,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +368,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -407,9 +398,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -420,18 +414,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -462,187 +448,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,10 +659,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -697,33 +681,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -735,6 +692,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,157 +745,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -944,14 +930,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1552,7 +1538,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1560,8 +1546,7 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="51.75" customWidth="1"/>
     <col min="6" max="6" width="64.375" customWidth="1"/>
-    <col min="7" max="7" width="41.25" customWidth="1"/>
-    <col min="8" max="8" width="41.25" customWidth="1"/>
+    <col min="7" max="8" width="41.25" customWidth="1"/>
     <col min="9" max="10" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1874,10 +1859,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J14" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
@@ -1902,10 +1887,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J15" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
@@ -1930,10 +1915,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J16" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:10">
@@ -1958,10 +1943,10 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J17" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:10">
@@ -1986,10 +1971,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J18" s="5">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
   </sheetData>
